--- a/Datos/Database by set/Set with text box/Xlsx sets/Rivals of Ixalan Tokens (TRIX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Rivals of Ixalan Tokens (TRIX).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,196 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>City's Blessing</t>
+          <t>("City's Blessing", ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Elemental', ['Token Creature — Elemental', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>('Golem', ['Token Artifact Creature — Golem', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Token Creature — Elemental</t>
+          <t>('Huatli, Radiant Champion Emblem', ['Emblem — Huatli', 'Whenever a creature enters the battlefield under your control, you may draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>At the beginning of your upkeep, sacrifice this creature and return target card named Rekindling Phoenix from your graveyard to the battlefield. It gains haste until end of turn.</t>
+          <t>('Rivals of Ixalan Checklist', ['Card', '(You can mark this card to represent a double-faced card in your library or hand.)', '☐ Hadana’s Climb {1}{G}{U}', '☐ Journey to Eternity {1}{B}{G}', '☐ Path of Mettle {R}{W}', '☐ Profane Procession {1}{W}{B}', '☐ Storm the Vault {2}{U}{R}', '☐ Azor’s Gateway {2}', '☐ Golden Guardian {4}'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Huatli, Radiant Champion Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Emblem — Huatli</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Whenever a creature enters the battlefield under your control, you may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rivals of Ixalan Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(You can mark this card to represent a double-faced card in your library or hand.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>☐ Hadana’s Climb {1}{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>☐ Journey to Eternity {1}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>☐ Path of Mettle {R}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>☐ Profane Procession {1}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>☐ Storm the Vault {2}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>☐ Azor’s Gateway {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>☐ Golden Guardian {4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
